--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Website-Ban-Sach\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TIỂU LUẬN CHUYÊN NGÀNH</t>
   </si>
@@ -47,7 +47,19 @@
     <t>Kết quả thực hiện</t>
   </si>
   <si>
-    <t xml:space="preserve">Khảo sát </t>
+    <t>Khảo sát hiện trạng</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vẽ use case </t>
+  </si>
+  <si>
+    <t>Tạo link github</t>
+  </si>
+  <si>
+    <t>Phát thảo công nghệ</t>
   </si>
 </sst>
 </file>
@@ -147,10 +159,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -435,7 +447,7 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,13 +491,15 @@
       <c r="C4" s="3">
         <v>16110105</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -494,51 +508,63 @@
       <c r="C5" s="3">
         <v>16110206</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E14" s="6"/>

--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Website-Ban-Sach\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tiểu Luận Chuyên Ngành\Website-Ban-Sach\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24972" windowHeight="10152"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>TIỂU LUẬN CHUYÊN NGÀNH</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Phát thảo công nghệ</t>
+  </si>
+  <si>
+    <t>Vẽ Class Diagram</t>
+  </si>
+  <si>
+    <t>Vẽ Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Sửa lại use case</t>
+  </si>
+  <si>
+    <t>Đặc tả use case</t>
   </si>
 </sst>
 </file>
@@ -447,18 +459,18 @@
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
@@ -469,7 +481,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,7 +496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -501,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -516,7 +528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
       <c r="F6" s="9" t="s">
         <v>10</v>
@@ -525,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E7" s="10"/>
       <c r="F7" s="9" t="s">
         <v>11</v>
@@ -534,39 +546,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E8" s="10"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E9" s="10">
         <v>2</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" s="10"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>

--- a/BaoCaoTienDo.xlsx
+++ b/BaoCaoTienDo.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tiểu Luận Chuyên Ngành\Website-Ban-Sach\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="18588" windowHeight="10248"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>TIỂU LUẬN CHUYÊN NGÀNH</t>
   </si>
@@ -32,25 +22,25 @@
     <t>Thành viên nhóm :</t>
   </si>
   <si>
+    <t xml:space="preserve">Tuần </t>
+  </si>
+  <si>
+    <t>Công việc</t>
+  </si>
+  <si>
+    <t>Kết quả thực hiện</t>
+  </si>
+  <si>
     <t>Lữ Phước Hưng</t>
   </si>
   <si>
+    <t>Khảo sát hiện trạng</t>
+  </si>
+  <si>
+    <t>hoàn thành</t>
+  </si>
+  <si>
     <t>Trần Quang Tân</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuần </t>
-  </si>
-  <si>
-    <t>Công việc</t>
-  </si>
-  <si>
-    <t>Kết quả thực hiện</t>
-  </si>
-  <si>
-    <t>Khảo sát hiện trạng</t>
-  </si>
-  <si>
-    <t>hoàn thành</t>
   </si>
   <si>
     <t xml:space="preserve">Vẽ use case </t>
@@ -77,28 +67,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,17 +87,176 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,10 +266,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -139,55 +460,337 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,7 +839,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +874,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,157 +1048,154 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="8.85185185185185" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F1" s="5" t="s">
+    <row r="1" ht="20.4" spans="6:13">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
-    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="17.4" spans="2:7">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="C4" s="6">
+        <v>16110105</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:7">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16110206</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
-        <v>16110105</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>16110206</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
+    <row r="10" spans="5:7">
+      <c r="E10" s="7"/>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="10"/>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
+    <row r="11" spans="5:7">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
+    <row r="12" spans="5:7">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+    <row r="13" spans="5:7">
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="10">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+    <row r="14" spans="5:7">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -603,6 +1203,7 @@
     <mergeCell ref="E9:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>